--- a/root/backend_cauclub/app/data/data.xlsx
+++ b/root/backend_cauclub/app/data/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shine\Desktop\Workspace\Git\CAUClub\root\backend_cauclub\app\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA528847-37B2-4E57-A121-E6612B58CB2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B5F03EA-9374-4C5C-8086-E0C75BD0A414}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{BEBA7DFB-A21F-41D1-BF5D-23E9DFEEF4A6}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{BEBA7DFB-A21F-41D1-BF5D-23E9DFEEF4A6}"/>
   </bookViews>
   <sheets>
     <sheet name="2021-1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
   <si>
     <t>연도</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -77,6 +77,14 @@
   </si>
   <si>
     <t>소프트웨어학부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강시운</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>생일</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -509,21 +517,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C893B17F-B4DA-4326-A9AB-4A6A60E705B5}">
-  <dimension ref="A1:G191"/>
+  <dimension ref="A1:H191"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
+      <selection pane="bottomLeft" activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="2" width="20.625" style="1" customWidth="1"/>
     <col min="3" max="4" width="20.625" style="4" customWidth="1"/>
-    <col min="5" max="7" width="20.625" style="1" customWidth="1"/>
+    <col min="5" max="8" width="20.625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -545,14 +553,23 @@
       <c r="G1" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>2022</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
       </c>
+      <c r="C2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="4">
+        <v>20185456</v>
+      </c>
       <c r="E2" s="1" t="s">
         <v>9</v>
       </c>
@@ -562,70 +579,82 @@
       <c r="G2" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2" s="1">
+        <v>990813</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>2022</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
       </c>
+      <c r="C3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="4">
+        <v>20185456</v>
+      </c>
       <c r="E3" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3" s="1">
+        <v>990813</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:8">
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:8">
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:8">
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:8">
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:8">
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:8">
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:8">
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:8">
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:8">
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:8">
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:8">
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:8">
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
     </row>
@@ -1333,5 +1362,6 @@
   <autoFilter ref="A1:G2" xr:uid="{C893B17F-B4DA-4326-A9AB-4A6A60E705B5}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>